--- a/biology/Médecine/Arracheur_de_dents/Arracheur_de_dents.xlsx
+++ b/biology/Médecine/Arracheur_de_dents/Arracheur_de_dents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arracheur de dents est un ancien métier de forain exerçant l'arrachage des dents. Par analogie, c'est de nos jours le surnom donné a un mauvais dentiste.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouvait souvent les arracheurs de dents lors des marchés locaux[1] et parfois le barbier pouvait avoir cette fonction[2].
-Les arracheurs de dents étaient parfois accompagnés de musiciens dont la fonction était de jouer le plus fort possible pour masquer les cris de douleur des patients. À Lyon, vers 1797, Laurent Mourguet, alors arracheur de dents, attire et distrait ses patients avec des spectacles de marionnettes[3]. C'est ainsi qu'il va être amené à créer le personnage de Guignol, vers 1808[4].
-En 1880 dans les Pyrénées-Orientales, un arracheur de dents se vante d'avoir arraché 475 dents en une heure, score sans doute exagéré[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouvait souvent les arracheurs de dents lors des marchés locaux et parfois le barbier pouvait avoir cette fonction.
+Les arracheurs de dents étaient parfois accompagnés de musiciens dont la fonction était de jouer le plus fort possible pour masquer les cris de douleur des patients. À Lyon, vers 1797, Laurent Mourguet, alors arracheur de dents, attire et distrait ses patients avec des spectacles de marionnettes. C'est ainsi qu'il va être amené à créer le personnage de Guignol, vers 1808.
+En 1880 dans les Pyrénées-Orientales, un arracheur de dents se vante d'avoir arraché 475 dents en une heure, score sans doute exagéré.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Représentations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses représentations du métier d'arracheur de dents existent dans la peinture, parmi lesquelles :
 L'Arracheur de dents (vers 1608-1610) du Caravage ;
@@ -582,9 +598,11 @@
           <t>Expression</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France métropolitaine, « mentir comme un arracheur de dents » signifie la fin du XVIe siècle[6] « mentir sans vergogne »[7]. Les dentistes, qui exerçaient leur art sur les places publiques, faisaient croire à leurs patients que l'arrachage serait indolore, d'où cette expression.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France métropolitaine, « mentir comme un arracheur de dents » signifie la fin du XVIe siècle « mentir sans vergogne ». Les dentistes, qui exerçaient leur art sur les places publiques, faisaient croire à leurs patients que l'arrachage serait indolore, d'où cette expression.
 </t>
         </is>
       </c>
